--- a/Excel-XLSX/UN-GUA.xlsx
+++ b/Excel-XLSX/UN-GUA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="560">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>ClCV4A</t>
+    <t>2HExX1</t>
   </si>
   <si>
     <t>1972</t>
@@ -1584,7 +1584,7 @@
     <t>281</t>
   </si>
   <si>
-    <t>3862</t>
+    <t>9396</t>
   </si>
   <si>
     <t>282</t>
@@ -1605,39 +1605,48 @@
     <t>284</t>
   </si>
   <si>
-    <t>3765</t>
+    <t>2898</t>
   </si>
   <si>
     <t>285</t>
   </si>
   <si>
-    <t>10269</t>
+    <t>23630</t>
+  </si>
+  <si>
+    <t>72921</t>
   </si>
   <si>
     <t>286</t>
   </si>
   <si>
-    <t>309</t>
-  </si>
-  <si>
-    <t>759</t>
-  </si>
-  <si>
-    <t>15850</t>
+    <t>597</t>
   </si>
   <si>
     <t>287</t>
   </si>
   <si>
+    <t>319</t>
+  </si>
+  <si>
+    <t>1016</t>
+  </si>
+  <si>
+    <t>34570</t>
+  </si>
+  <si>
     <t>288</t>
   </si>
   <si>
-    <t>372</t>
-  </si>
-  <si>
     <t>289</t>
   </si>
   <si>
+    <t>519</t>
+  </si>
+  <si>
+    <t>1791</t>
+  </si>
+  <si>
     <t>290</t>
   </si>
   <si>
@@ -1650,13 +1659,16 @@
     <t>293</t>
   </si>
   <si>
-    <t>551</t>
-  </si>
-  <si>
-    <t>460</t>
-  </si>
-  <si>
-    <t>2092</t>
+    <t>569</t>
+  </si>
+  <si>
+    <t>567</t>
+  </si>
+  <si>
+    <t>1926</t>
+  </si>
+  <si>
+    <t>296</t>
   </si>
   <si>
     <t>Sudan</t>
@@ -1668,19 +1680,22 @@
     <t>SDN</t>
   </si>
   <si>
-    <t>296</t>
-  </si>
-  <si>
-    <t>1045</t>
-  </si>
-  <si>
     <t>297</t>
   </si>
   <si>
+    <t>4143</t>
+  </si>
+  <si>
     <t>299</t>
   </si>
   <si>
-    <t>38445</t>
+    <t>300</t>
+  </si>
+  <si>
+    <t>702</t>
+  </si>
+  <si>
+    <t>96614</t>
   </si>
 </sst>
 </file>
@@ -2065,7 +2080,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V300"/>
+  <dimension ref="A1:V301"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -21089,7 +21104,7 @@
         <v>33</v>
       </c>
       <c r="O280" s="2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="P280" s="2" t="s">
         <v>33</v>
@@ -21157,7 +21172,7 @@
         <v>33</v>
       </c>
       <c r="O281" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P281" s="2" t="s">
         <v>33</v>
@@ -21225,7 +21240,7 @@
         <v>71</v>
       </c>
       <c r="O282" s="2" t="s">
-        <v>224</v>
+        <v>317</v>
       </c>
       <c r="P282" s="2" t="s">
         <v>33</v>
@@ -21358,10 +21373,10 @@
         <v>31</v>
       </c>
       <c r="N284" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O284" s="2" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="P284" s="2" t="s">
         <v>33</v>
@@ -21429,7 +21444,7 @@
         <v>33</v>
       </c>
       <c r="O285" s="2" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="P285" s="2" t="s">
         <v>33</v>
@@ -21518,7 +21533,7 @@
         <v>34</v>
       </c>
       <c r="V286" s="2" t="s">
-        <v>418</v>
+        <v>532</v>
       </c>
     </row>
     <row r="287">
@@ -21532,22 +21547,22 @@
         <v>22</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E287" s="2" t="s">
         <v>514</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="H287" s="1" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="I287" s="1" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="J287" s="2" t="s">
         <v>28</v>
@@ -21562,25 +21577,25 @@
         <v>31</v>
       </c>
       <c r="N287" s="2" t="s">
-        <v>533</v>
+        <v>33</v>
       </c>
       <c r="O287" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P287" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q287" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R287" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S287" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T287" s="2" t="s">
         <v>534</v>
-      </c>
-      <c r="P287" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q287" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R287" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S287" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T287" s="2" t="s">
-        <v>535</v>
       </c>
       <c r="U287" s="1" t="s">
         <v>34</v>
@@ -21600,22 +21615,22 @@
         <v>22</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E288" s="2" t="s">
         <v>514</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>270</v>
+        <v>115</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>383</v>
+        <v>116</v>
       </c>
       <c r="H288" s="1" t="s">
-        <v>384</v>
+        <v>117</v>
       </c>
       <c r="I288" s="1" t="s">
-        <v>384</v>
+        <v>118</v>
       </c>
       <c r="J288" s="2" t="s">
         <v>28</v>
@@ -21630,10 +21645,10 @@
         <v>31</v>
       </c>
       <c r="N288" s="2" t="s">
-        <v>50</v>
+        <v>536</v>
       </c>
       <c r="O288" s="2" t="s">
-        <v>140</v>
+        <v>537</v>
       </c>
       <c r="P288" s="2" t="s">
         <v>33</v>
@@ -21648,7 +21663,7 @@
         <v>33</v>
       </c>
       <c r="T288" s="2" t="s">
-        <v>33</v>
+        <v>538</v>
       </c>
       <c r="U288" s="1" t="s">
         <v>34</v>
@@ -21668,22 +21683,22 @@
         <v>22</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E289" s="2" t="s">
         <v>514</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>62</v>
+        <v>270</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>63</v>
+        <v>383</v>
       </c>
       <c r="H289" s="1" t="s">
-        <v>64</v>
+        <v>384</v>
       </c>
       <c r="I289" s="1" t="s">
-        <v>64</v>
+        <v>384</v>
       </c>
       <c r="J289" s="2" t="s">
         <v>28</v>
@@ -21698,10 +21713,10 @@
         <v>31</v>
       </c>
       <c r="N289" s="2" t="s">
-        <v>402</v>
+        <v>58</v>
       </c>
       <c r="O289" s="2" t="s">
-        <v>538</v>
+        <v>259</v>
       </c>
       <c r="P289" s="2" t="s">
         <v>33</v>
@@ -21736,22 +21751,22 @@
         <v>22</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E290" s="2" t="s">
         <v>514</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>159</v>
+        <v>62</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="H290" s="1" t="s">
-        <v>161</v>
+        <v>64</v>
       </c>
       <c r="I290" s="1" t="s">
-        <v>162</v>
+        <v>64</v>
       </c>
       <c r="J290" s="2" t="s">
         <v>28</v>
@@ -21766,10 +21781,10 @@
         <v>31</v>
       </c>
       <c r="N290" s="2" t="s">
-        <v>33</v>
+        <v>409</v>
       </c>
       <c r="O290" s="2" t="s">
-        <v>50</v>
+        <v>541</v>
       </c>
       <c r="P290" s="2" t="s">
         <v>33</v>
@@ -21784,7 +21799,7 @@
         <v>33</v>
       </c>
       <c r="T290" s="2" t="s">
-        <v>33</v>
+        <v>542</v>
       </c>
       <c r="U290" s="1" t="s">
         <v>34</v>
@@ -21804,22 +21819,22 @@
         <v>22</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="E291" s="2" t="s">
         <v>514</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>298</v>
+        <v>159</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>462</v>
+        <v>160</v>
       </c>
       <c r="H291" s="1" t="s">
-        <v>463</v>
+        <v>161</v>
       </c>
       <c r="I291" s="1" t="s">
-        <v>463</v>
+        <v>162</v>
       </c>
       <c r="J291" s="2" t="s">
         <v>28</v>
@@ -21872,22 +21887,22 @@
         <v>22</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="E292" s="2" t="s">
         <v>514</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>164</v>
+        <v>298</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>165</v>
+        <v>462</v>
       </c>
       <c r="H292" s="1" t="s">
-        <v>166</v>
+        <v>463</v>
       </c>
       <c r="I292" s="1" t="s">
-        <v>166</v>
+        <v>463</v>
       </c>
       <c r="J292" s="2" t="s">
         <v>28</v>
@@ -21905,7 +21920,7 @@
         <v>33</v>
       </c>
       <c r="O292" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="P292" s="2" t="s">
         <v>33</v>
@@ -21940,22 +21955,22 @@
         <v>22</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="E293" s="2" t="s">
         <v>514</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>307</v>
+        <v>164</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>501</v>
+        <v>165</v>
       </c>
       <c r="H293" s="1" t="s">
-        <v>502</v>
+        <v>166</v>
       </c>
       <c r="I293" s="1" t="s">
-        <v>502</v>
+        <v>166</v>
       </c>
       <c r="J293" s="2" t="s">
         <v>28</v>
@@ -21973,7 +21988,7 @@
         <v>33</v>
       </c>
       <c r="O293" s="2" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="P293" s="2" t="s">
         <v>33</v>
@@ -22008,22 +22023,22 @@
         <v>22</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="E294" s="2" t="s">
         <v>514</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>225</v>
+        <v>307</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>226</v>
+        <v>501</v>
       </c>
       <c r="H294" s="1" t="s">
-        <v>227</v>
+        <v>502</v>
       </c>
       <c r="I294" s="1" t="s">
-        <v>227</v>
+        <v>502</v>
       </c>
       <c r="J294" s="2" t="s">
         <v>28</v>
@@ -22038,7 +22053,7 @@
         <v>31</v>
       </c>
       <c r="N294" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="O294" s="2" t="s">
         <v>50</v>
@@ -22082,16 +22097,16 @@
         <v>514</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>43</v>
+        <v>225</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>44</v>
+        <v>226</v>
       </c>
       <c r="H295" s="1" t="s">
-        <v>45</v>
+        <v>227</v>
       </c>
       <c r="I295" s="1" t="s">
-        <v>46</v>
+        <v>227</v>
       </c>
       <c r="J295" s="2" t="s">
         <v>28</v>
@@ -22106,10 +22121,10 @@
         <v>31</v>
       </c>
       <c r="N295" s="2" t="s">
-        <v>544</v>
+        <v>50</v>
       </c>
       <c r="O295" s="2" t="s">
-        <v>545</v>
+        <v>33</v>
       </c>
       <c r="P295" s="2" t="s">
         <v>33</v>
@@ -22124,7 +22139,7 @@
         <v>33</v>
       </c>
       <c r="T295" s="2" t="s">
-        <v>546</v>
+        <v>33</v>
       </c>
       <c r="U295" s="1" t="s">
         <v>34</v>
@@ -22150,49 +22165,49 @@
         <v>514</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>332</v>
+        <v>43</v>
       </c>
       <c r="G296" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H296" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I296" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J296" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K296" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L296" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M296" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N296" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="H296" s="1" t="s">
+      <c r="O296" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="I296" s="1" t="s">
+      <c r="P296" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q296" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R296" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S296" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T296" s="2" t="s">
         <v>549</v>
-      </c>
-      <c r="J296" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K296" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L296" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M296" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N296" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O296" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="P296" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q296" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R296" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S296" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T296" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="U296" s="1" t="s">
         <v>34</v>
@@ -22218,16 +22233,16 @@
         <v>514</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>36</v>
+        <v>332</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>37</v>
+        <v>551</v>
       </c>
       <c r="H297" s="1" t="s">
-        <v>38</v>
+        <v>552</v>
       </c>
       <c r="I297" s="1" t="s">
-        <v>39</v>
+        <v>553</v>
       </c>
       <c r="J297" s="2" t="s">
         <v>28</v>
@@ -22245,7 +22260,7 @@
         <v>33</v>
       </c>
       <c r="O297" s="2" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="P297" s="2" t="s">
         <v>33</v>
@@ -22260,7 +22275,7 @@
         <v>33</v>
       </c>
       <c r="T297" s="2" t="s">
-        <v>551</v>
+        <v>33</v>
       </c>
       <c r="U297" s="1" t="s">
         <v>34</v>
@@ -22280,22 +22295,22 @@
         <v>22</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E298" s="2" t="s">
         <v>514</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>373</v>
+        <v>36</v>
       </c>
       <c r="G298" s="1" t="s">
-        <v>470</v>
+        <v>37</v>
       </c>
       <c r="H298" s="1" t="s">
-        <v>471</v>
+        <v>38</v>
       </c>
       <c r="I298" s="1" t="s">
-        <v>471</v>
+        <v>39</v>
       </c>
       <c r="J298" s="2" t="s">
         <v>28</v>
@@ -22310,7 +22325,7 @@
         <v>31</v>
       </c>
       <c r="N298" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="O298" s="2" t="s">
         <v>33</v>
@@ -22328,7 +22343,7 @@
         <v>33</v>
       </c>
       <c r="T298" s="2" t="s">
-        <v>33</v>
+        <v>555</v>
       </c>
       <c r="U298" s="1" t="s">
         <v>34</v>
@@ -22354,16 +22369,16 @@
         <v>514</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="G299" s="1" t="s">
-        <v>351</v>
+        <v>470</v>
       </c>
       <c r="H299" s="1" t="s">
-        <v>352</v>
+        <v>471</v>
       </c>
       <c r="I299" s="1" t="s">
-        <v>352</v>
+        <v>471</v>
       </c>
       <c r="J299" s="2" t="s">
         <v>28</v>
@@ -22378,10 +22393,10 @@
         <v>31</v>
       </c>
       <c r="N299" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="O299" s="2" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="P299" s="2" t="s">
         <v>33</v>
@@ -22416,60 +22431,128 @@
         <v>22</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="E300" s="2" t="s">
         <v>514</v>
       </c>
       <c r="F300" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="G300" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H300" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="I300" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J300" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K300" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L300" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M300" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N300" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O300" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P300" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q300" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R300" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S300" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T300" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U300" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V300" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="F301" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="G300" s="1" t="s">
+      <c r="G301" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="H300" s="1" t="s">
+      <c r="H301" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="I300" s="1" t="s">
+      <c r="I301" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="J300" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K300" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L300" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M300" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N300" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="O300" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="P300" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q300" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R300" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S300" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T300" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="U300" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V300" s="2" t="s">
+      <c r="J301" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K301" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L301" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M301" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N301" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="O301" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="P301" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q301" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R301" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S301" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T301" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="U301" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V301" s="2" t="s">
         <v>33</v>
       </c>
     </row>
